--- a/optaplanner-examples/data/flightcrewscheduling/unsolved/175flights-7days-US.xlsx
+++ b/optaplanner-examples/data/flightcrewscheduling/unsolved/175flights-7days-US.xlsx
@@ -6461,7 +6461,7 @@
       <c r="I5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6484,16 +6484,16 @@
       <c r="F6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6766,19 +6766,19 @@
       <c r="D15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>120</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -6955,19 +6955,19 @@
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -6993,16 +6993,16 @@
       <c r="E22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -7014,7 +7014,7 @@
         <v>149</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
@@ -7028,16 +7028,16 @@
       <c r="F23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
         <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -7150,7 +7150,7 @@
       <c r="D27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -7159,7 +7159,7 @@
       <c r="G27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -7188,7 +7188,7 @@
       <c r="F28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -7206,7 +7206,7 @@
         <v>155</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
@@ -7302,7 +7302,7 @@
         <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -7334,7 +7334,7 @@
         <v>159</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -7371,13 +7371,13 @@
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -7389,7 +7389,7 @@
       <c r="I34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
         <v>161</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -7421,7 +7421,7 @@
       <c r="I35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
       <c r="D37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -7482,7 +7482,7 @@
       <c r="H37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -7494,7 +7494,7 @@
         <v>164</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
@@ -7526,7 +7526,7 @@
         <v>165</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
@@ -7572,10 +7572,10 @@
       <c r="F40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="G40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -7590,7 +7590,7 @@
         <v>167</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>18</v>
@@ -7622,7 +7622,7 @@
         <v>168</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
@@ -7654,7 +7654,7 @@
         <v>169</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
@@ -7677,7 +7677,7 @@
       <c r="I43" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
         <v>170</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
@@ -7735,7 +7735,7 @@
       <c r="G45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -7750,7 +7750,7 @@
         <v>172</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -7796,16 +7796,16 @@
       <c r="F47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J47" s="2" t="s">
+      <c r="I47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7851,10 +7851,10 @@
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -7878,7 +7878,7 @@
         <v>176</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
@@ -7959,13 +7959,13 @@
       <c r="G52" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7974,7 +7974,7 @@
         <v>179</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
@@ -7985,7 +7985,7 @@
       <c r="E53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -8011,10 +8011,10 @@
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -8023,10 +8023,10 @@
       <c r="G54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="H54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -8038,7 +8038,7 @@
         <v>181</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
@@ -8046,16 +8046,16 @@
       <c r="D55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -8093,7 +8093,7 @@
       <c r="I56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8148,7 +8148,7 @@
       <c r="F58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -8215,7 +8215,7 @@
       <c r="G60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -8230,7 +8230,7 @@
         <v>187</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
@@ -8282,10 +8282,10 @@
       <c r="H62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="I62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8302,7 +8302,7 @@
       <c r="D63" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -8326,12 +8326,12 @@
         <v>190</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -8369,16 +8369,16 @@
       <c r="E65" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="H65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J65" s="2" t="s">
@@ -8422,7 +8422,7 @@
         <v>193</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
@@ -8430,19 +8430,19 @@
       <c r="D67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="3" t="s">
         <v>120</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J67" s="2" t="s">
@@ -8486,7 +8486,7 @@
         <v>195</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
@@ -8494,13 +8494,13 @@
       <c r="D69" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -8538,7 +8538,7 @@
       <c r="H70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J70" s="2" t="s">
@@ -8555,7 +8555,7 @@
       <c r="C71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -8573,7 +8573,7 @@
       <c r="I71" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8582,7 +8582,7 @@
         <v>198</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
@@ -8596,7 +8596,7 @@
       <c r="F72" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -8605,7 +8605,7 @@
       <c r="I72" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
         <v>199</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
@@ -8646,7 +8646,7 @@
         <v>200</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
@@ -8678,7 +8678,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
@@ -8742,7 +8742,7 @@
         <v>203</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
@@ -8774,18 +8774,18 @@
         <v>204</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G78" s="2" t="s">
@@ -8806,7 +8806,7 @@
         <v>205</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -8838,7 +8838,7 @@
         <v>206</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
@@ -8849,7 +8849,7 @@
       <c r="E80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -8870,7 +8870,7 @@
         <v>207</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
@@ -8878,7 +8878,7 @@
       <c r="D81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -8890,7 +8890,7 @@
       <c r="H81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J81" s="2" t="s">
@@ -8902,7 +8902,7 @@
         <v>208</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
@@ -8934,7 +8934,7 @@
         <v>209</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
@@ -8957,7 +8957,7 @@
       <c r="I83" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8977,13 +8977,13 @@
       <c r="E84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -8998,7 +8998,7 @@
         <v>211</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
@@ -9030,12 +9030,12 @@
         <v>212</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -9044,7 +9044,7 @@
       <c r="F86" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -9053,7 +9053,7 @@
       <c r="I86" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       <c r="C87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -9108,7 +9108,7 @@
       <c r="F88" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="3" t="s">
         <v>120</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -9126,7 +9126,7 @@
         <v>215</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -9140,7 +9140,7 @@
       <c r="F89" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="3" t="s">
         <v>120</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -9166,7 +9166,7 @@
       <c r="D90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -9178,7 +9178,7 @@
       <c r="H90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J90" s="2" t="s">
@@ -9190,7 +9190,7 @@
         <v>217</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
@@ -9222,7 +9222,7 @@
         <v>218</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
@@ -9245,7 +9245,7 @@
       <c r="I92" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9254,7 +9254,7 @@
         <v>219</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -9329,10 +9329,10 @@
       <c r="E95" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="F95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -9387,7 +9387,7 @@
       <c r="C97" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -9451,7 +9451,7 @@
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -9486,7 +9486,7 @@
       <c r="D100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -9501,7 +9501,7 @@
       <c r="I100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9510,7 +9510,7 @@
         <v>227</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>18</v>
@@ -9524,13 +9524,13 @@
       <c r="F101" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="I101" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J101" s="2" t="s">
@@ -9542,7 +9542,7 @@
         <v>228</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
@@ -9562,7 +9562,7 @@
       <c r="H102" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J102" s="2" t="s">
@@ -9574,7 +9574,7 @@
         <v>229</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
@@ -9606,7 +9606,7 @@
         <v>230</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
@@ -9617,7 +9617,7 @@
       <c r="E104" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G104" s="2" t="s">
@@ -9646,7 +9646,7 @@
       <c r="D105" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -9670,7 +9670,7 @@
         <v>232</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>18</v>
@@ -9789,7 +9789,7 @@
       <c r="I109" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9809,7 +9809,7 @@
       <c r="E110" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G110" s="2" t="s">
@@ -9830,7 +9830,7 @@
         <v>237</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
@@ -9862,7 +9862,7 @@
         <v>238</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
@@ -9926,12 +9926,12 @@
         <v>240</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -9943,7 +9943,7 @@
       <c r="G114" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I114" s="2" t="s">
@@ -9966,10 +9966,10 @@
       <c r="D115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="E115" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G115" s="2" t="s">
@@ -9981,7 +9981,7 @@
       <c r="I115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
         <v>242</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>18</v>
@@ -9998,7 +9998,7 @@
       <c r="D116" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
@@ -10010,7 +10010,7 @@
       <c r="H116" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="I116" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J116" s="2" t="s">
@@ -10039,7 +10039,7 @@
       <c r="G117" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I117" s="2" t="s">
@@ -10068,7 +10068,7 @@
       <c r="F118" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="3" t="s">
         <v>120</v>
       </c>
       <c r="H118" s="2" t="s">
@@ -10118,7 +10118,7 @@
         <v>246</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>18</v>
@@ -10231,10 +10231,10 @@
       <c r="G123" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I123" s="3" t="s">
+      <c r="H123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J123" s="2" t="s">
@@ -10315,7 +10315,7 @@
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -10362,7 +10362,7 @@
       <c r="H127" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="I127" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J127" s="2" t="s">
@@ -10406,7 +10406,7 @@
         <v>255</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -10414,7 +10414,7 @@
       <c r="D129" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -10429,7 +10429,7 @@
       <c r="I129" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10438,7 +10438,7 @@
         <v>256</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
@@ -10507,7 +10507,7 @@
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -10534,7 +10534,7 @@
         <v>259</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -10566,7 +10566,7 @@
         <v>260</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
@@ -10635,13 +10635,13 @@
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G136" s="2" t="s">
@@ -10702,13 +10702,13 @@
       <c r="D138" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G138" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H138" s="2" t="s">
@@ -10717,7 +10717,7 @@
       <c r="I138" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J138" s="3" t="s">
+      <c r="J138" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10737,13 +10737,13 @@
       <c r="E139" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -10769,7 +10769,7 @@
       <c r="E140" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -10822,15 +10822,15 @@
         <v>268</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E142" s="3" t="s">
+      <c r="D142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
@@ -10862,22 +10862,22 @@
       <c r="D143" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="E143" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I143" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J143" s="2" t="s">
+      <c r="I143" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J143" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10918,7 +10918,7 @@
         <v>271</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
@@ -10932,13 +10932,13 @@
       <c r="F145" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I145" s="3" t="s">
+      <c r="G145" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J145" s="2" t="s">
@@ -10950,7 +10950,7 @@
         <v>272</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
@@ -10982,7 +10982,7 @@
         <v>273</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
@@ -11014,7 +11014,7 @@
         <v>274</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
@@ -11034,7 +11034,7 @@
       <c r="H148" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="I148" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J148" s="2" t="s">
@@ -11078,7 +11078,7 @@
         <v>276</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
@@ -11156,7 +11156,7 @@
       <c r="F152" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G152" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H152" s="2" t="s">
@@ -11165,7 +11165,7 @@
       <c r="I152" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="J152" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16226,7 +16226,7 @@
         <v>149</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -16250,7 +16250,7 @@
         <v>152</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -16274,7 +16274,7 @@
         <v>155</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -16298,7 +16298,7 @@
         <v>158</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -16306,7 +16306,7 @@
         <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -16322,7 +16322,7 @@
         <v>161</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -16346,7 +16346,7 @@
         <v>164</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -16354,7 +16354,7 @@
         <v>165</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -16370,7 +16370,7 @@
         <v>167</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -16378,7 +16378,7 @@
         <v>168</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -16386,7 +16386,7 @@
         <v>169</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -16394,7 +16394,7 @@
         <v>170</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -16410,7 +16410,7 @@
         <v>172</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -16442,7 +16442,7 @@
         <v>176</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
@@ -16466,7 +16466,7 @@
         <v>179</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
@@ -16482,7 +16482,7 @@
         <v>181</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
@@ -16530,7 +16530,7 @@
         <v>187</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -16554,7 +16554,7 @@
         <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
@@ -16578,7 +16578,7 @@
         <v>193</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -16594,7 +16594,7 @@
         <v>195</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
@@ -16618,7 +16618,7 @@
         <v>198</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -16626,7 +16626,7 @@
         <v>199</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -16634,7 +16634,7 @@
         <v>200</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -16642,7 +16642,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -16658,7 +16658,7 @@
         <v>203</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -16666,7 +16666,7 @@
         <v>204</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
@@ -16674,7 +16674,7 @@
         <v>205</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
@@ -16682,7 +16682,7 @@
         <v>206</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -16690,7 +16690,7 @@
         <v>207</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
@@ -16698,7 +16698,7 @@
         <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83">
@@ -16706,7 +16706,7 @@
         <v>209</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
@@ -16722,7 +16722,7 @@
         <v>211</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -16730,7 +16730,7 @@
         <v>212</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -16754,7 +16754,7 @@
         <v>215</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -16770,7 +16770,7 @@
         <v>217</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
@@ -16778,7 +16778,7 @@
         <v>218</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
@@ -16786,7 +16786,7 @@
         <v>219</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -16850,7 +16850,7 @@
         <v>227</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
@@ -16858,7 +16858,7 @@
         <v>228</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103">
@@ -16866,7 +16866,7 @@
         <v>229</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -16874,7 +16874,7 @@
         <v>230</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -16890,7 +16890,7 @@
         <v>232</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
@@ -16930,7 +16930,7 @@
         <v>237</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -16938,7 +16938,7 @@
         <v>238</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
@@ -16954,7 +16954,7 @@
         <v>240</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
@@ -16970,7 +16970,7 @@
         <v>242</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
@@ -17002,7 +17002,7 @@
         <v>246</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -17074,7 +17074,7 @@
         <v>255</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
@@ -17082,7 +17082,7 @@
         <v>256</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131">
@@ -17106,7 +17106,7 @@
         <v>259</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134">
@@ -17114,7 +17114,7 @@
         <v>260</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135">
@@ -17178,7 +17178,7 @@
         <v>268</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143">
@@ -17202,7 +17202,7 @@
         <v>271</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
@@ -17210,7 +17210,7 @@
         <v>272</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147">
@@ -17218,7 +17218,7 @@
         <v>273</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148">
@@ -17226,7 +17226,7 @@
         <v>274</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
@@ -17242,7 +17242,7 @@
         <v>276</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">

--- a/optaplanner-examples/data/flightcrewscheduling/unsolved/175flights-7days-US.xlsx
+++ b/optaplanner-examples/data/flightcrewscheduling/unsolved/175flights-7days-US.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="683">
   <si>
     <t>Schedule start UTC Date</t>
   </si>
@@ -885,6 +885,39 @@
     <t>Employee assignments</t>
   </si>
   <si>
+    <t>AB007</t>
+  </si>
+  <si>
+    <t>2018-01-01 06:08</t>
+  </si>
+  <si>
+    <t>2018-01-01 08:19</t>
+  </si>
+  <si>
+    <t>Pilot, Pilot, Flight attendant, Flight attendant, Flight attendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , , </t>
+  </si>
+  <si>
+    <t>AB024</t>
+  </si>
+  <si>
+    <t>2018-01-01 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:28</t>
+  </si>
+  <si>
+    <t>AB009</t>
+  </si>
+  <si>
+    <t>2018-01-01 07:39</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:47</t>
+  </si>
+  <si>
     <t>AB023</t>
   </si>
   <si>
@@ -894,10 +927,22 @@
     <t>2018-01-01 11:53</t>
   </si>
   <si>
-    <t>Pilot, Pilot, Flight attendant, Flight attendant, Flight attendant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, , , , </t>
+    <t>AB003</t>
+  </si>
+  <si>
+    <t>2018-01-01 08:45</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:33</t>
+  </si>
+  <si>
+    <t>AB020</t>
+  </si>
+  <si>
+    <t>2018-01-01 08:58</t>
+  </si>
+  <si>
+    <t>2018-01-01 13:20</t>
   </si>
   <si>
     <t>AB016</t>
@@ -909,6 +954,114 @@
     <t>2018-01-01 14:18</t>
   </si>
   <si>
+    <t>AB011</t>
+  </si>
+  <si>
+    <t>2018-01-01 09:47</t>
+  </si>
+  <si>
+    <t>2018-01-01 12:09</t>
+  </si>
+  <si>
+    <t>AB019</t>
+  </si>
+  <si>
+    <t>2018-01-01 09:53</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:41</t>
+  </si>
+  <si>
+    <t>AB014</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:38</t>
+  </si>
+  <si>
+    <t>2018-01-01 13:19</t>
+  </si>
+  <si>
+    <t>AB022</t>
+  </si>
+  <si>
+    <t>2018-01-01 11:18</t>
+  </si>
+  <si>
+    <t>2018-01-01 13:37</t>
+  </si>
+  <si>
+    <t>AB017</t>
+  </si>
+  <si>
+    <t>2018-01-01 11:21</t>
+  </si>
+  <si>
+    <t>2018-01-01 16:17</t>
+  </si>
+  <si>
+    <t>AB025</t>
+  </si>
+  <si>
+    <t>2018-01-01 11:33</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:48</t>
+  </si>
+  <si>
+    <t>AB010</t>
+  </si>
+  <si>
+    <t>2018-01-01 11:34</t>
+  </si>
+  <si>
+    <t>2018-01-01 13:48</t>
+  </si>
+  <si>
+    <t>AB002</t>
+  </si>
+  <si>
+    <t>2018-01-01 12:06</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:56</t>
+  </si>
+  <si>
+    <t>AB021</t>
+  </si>
+  <si>
+    <t>2018-01-01 12:28</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:47</t>
+  </si>
+  <si>
+    <t>AB004</t>
+  </si>
+  <si>
+    <t>2018-01-01 13:29</t>
+  </si>
+  <si>
+    <t>2018-01-01 15:51</t>
+  </si>
+  <si>
+    <t>AB008</t>
+  </si>
+  <si>
+    <t>2018-01-01 13:46</t>
+  </si>
+  <si>
+    <t>2018-01-01 16:10</t>
+  </si>
+  <si>
+    <t>AB015</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:33</t>
+  </si>
+  <si>
+    <t>2018-01-01 17:16</t>
+  </si>
+  <si>
     <t>AB018</t>
   </si>
   <si>
@@ -918,6 +1071,39 @@
     <t>2018-01-01 17:49</t>
   </si>
   <si>
+    <t>AB001</t>
+  </si>
+  <si>
+    <t>2018-01-01 15:42</t>
+  </si>
+  <si>
+    <t>2018-01-01 18:32</t>
+  </si>
+  <si>
+    <t>AB012</t>
+  </si>
+  <si>
+    <t>2018-01-01 17:33</t>
+  </si>
+  <si>
+    <t>2018-01-01 19:55</t>
+  </si>
+  <si>
+    <t>AB005</t>
+  </si>
+  <si>
+    <t>2018-01-01 20:35</t>
+  </si>
+  <si>
+    <t>AB006</t>
+  </si>
+  <si>
+    <t>2018-01-01 18:33</t>
+  </si>
+  <si>
+    <t>2018-01-01 20:44</t>
+  </si>
+  <si>
     <t>AB013</t>
   </si>
   <si>
@@ -927,190 +1113,22 @@
     <t>2018-01-01 21:17</t>
   </si>
   <si>
-    <t>AB003</t>
-  </si>
-  <si>
-    <t>2018-01-01 08:45</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:33</t>
-  </si>
-  <si>
-    <t>AB011</t>
-  </si>
-  <si>
-    <t>2018-01-01 09:47</t>
-  </si>
-  <si>
-    <t>2018-01-01 12:09</t>
-  </si>
-  <si>
-    <t>AB021</t>
-  </si>
-  <si>
-    <t>2018-01-01 12:28</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:47</t>
-  </si>
-  <si>
-    <t>AB008</t>
-  </si>
-  <si>
-    <t>2018-01-01 13:46</t>
-  </si>
-  <si>
-    <t>2018-01-01 16:10</t>
-  </si>
-  <si>
-    <t>AB001</t>
-  </si>
-  <si>
-    <t>2018-01-01 15:42</t>
-  </si>
-  <si>
-    <t>2018-01-01 18:32</t>
-  </si>
-  <si>
-    <t>AB006</t>
-  </si>
-  <si>
-    <t>2018-01-01 18:33</t>
-  </si>
-  <si>
-    <t>2018-01-01 20:44</t>
-  </si>
-  <si>
-    <t>AB020</t>
-  </si>
-  <si>
-    <t>2018-01-01 08:58</t>
-  </si>
-  <si>
-    <t>2018-01-01 13:20</t>
-  </si>
-  <si>
-    <t>AB022</t>
-  </si>
-  <si>
-    <t>2018-01-01 11:18</t>
-  </si>
-  <si>
-    <t>2018-01-01 13:37</t>
-  </si>
-  <si>
-    <t>AB007</t>
-  </si>
-  <si>
-    <t>2018-01-01 06:08</t>
-  </si>
-  <si>
-    <t>2018-01-01 08:19</t>
-  </si>
-  <si>
-    <t>AB010</t>
-  </si>
-  <si>
-    <t>2018-01-01 11:34</t>
-  </si>
-  <si>
-    <t>2018-01-01 13:48</t>
-  </si>
-  <si>
-    <t>AB009</t>
-  </si>
-  <si>
-    <t>2018-01-01 07:39</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:47</t>
-  </si>
-  <si>
-    <t>AB014</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:38</t>
-  </si>
-  <si>
-    <t>2018-01-01 13:19</t>
-  </si>
-  <si>
-    <t>AB005</t>
-  </si>
-  <si>
-    <t>2018-01-01 20:35</t>
-  </si>
-  <si>
-    <t>AB012</t>
-  </si>
-  <si>
-    <t>2018-01-01 17:33</t>
-  </si>
-  <si>
-    <t>2018-01-01 19:55</t>
-  </si>
-  <si>
-    <t>AB002</t>
-  </si>
-  <si>
-    <t>2018-01-01 12:06</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:56</t>
-  </si>
-  <si>
-    <t>AB025</t>
-  </si>
-  <si>
-    <t>2018-01-01 11:33</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:48</t>
-  </si>
-  <si>
-    <t>AB024</t>
-  </si>
-  <si>
-    <t>2018-01-01 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:28</t>
-  </si>
-  <si>
-    <t>AB017</t>
-  </si>
-  <si>
-    <t>2018-01-01 11:21</t>
-  </si>
-  <si>
-    <t>2018-01-01 16:17</t>
-  </si>
-  <si>
-    <t>AB004</t>
-  </si>
-  <si>
-    <t>2018-01-01 13:29</t>
-  </si>
-  <si>
-    <t>2018-01-01 15:51</t>
-  </si>
-  <si>
-    <t>AB019</t>
-  </si>
-  <si>
-    <t>2018-01-01 09:53</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:41</t>
-  </si>
-  <si>
-    <t>AB015</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:33</t>
-  </si>
-  <si>
-    <t>2018-01-01 17:16</t>
+    <t>2018-01-02 06:08</t>
+  </si>
+  <si>
+    <t>2018-01-02 08:19</t>
+  </si>
+  <si>
+    <t>2018-01-02 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:28</t>
+  </si>
+  <si>
+    <t>2018-01-02 07:39</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:47</t>
   </si>
   <si>
     <t>2018-01-02 08:22</t>
@@ -1119,145 +1137,145 @@
     <t>2018-01-02 11:53</t>
   </si>
   <si>
+    <t>2018-01-02 08:45</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:33</t>
+  </si>
+  <si>
+    <t>2018-01-02 08:58</t>
+  </si>
+  <si>
+    <t>2018-01-02 13:20</t>
+  </si>
+  <si>
     <t>2018-01-02 09:22</t>
   </si>
   <si>
     <t>2018-01-02 14:18</t>
   </si>
   <si>
+    <t>2018-01-02 09:47</t>
+  </si>
+  <si>
+    <t>2018-01-02 12:09</t>
+  </si>
+  <si>
+    <t>2018-01-02 09:53</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:41</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:38</t>
+  </si>
+  <si>
+    <t>2018-01-02 13:19</t>
+  </si>
+  <si>
+    <t>2018-01-02 11:18</t>
+  </si>
+  <si>
+    <t>2018-01-02 13:37</t>
+  </si>
+  <si>
+    <t>2018-01-02 11:21</t>
+  </si>
+  <si>
+    <t>2018-01-02 16:17</t>
+  </si>
+  <si>
+    <t>2018-01-02 11:33</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:48</t>
+  </si>
+  <si>
+    <t>2018-01-02 11:34</t>
+  </si>
+  <si>
+    <t>2018-01-02 13:48</t>
+  </si>
+  <si>
+    <t>2018-01-02 12:06</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:56</t>
+  </si>
+  <si>
+    <t>2018-01-02 12:28</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:47</t>
+  </si>
+  <si>
+    <t>2018-01-02 13:29</t>
+  </si>
+  <si>
+    <t>2018-01-02 15:51</t>
+  </si>
+  <si>
+    <t>2018-01-02 13:46</t>
+  </si>
+  <si>
+    <t>2018-01-02 16:10</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:33</t>
+  </si>
+  <si>
+    <t>2018-01-02 17:16</t>
+  </si>
+  <si>
     <t>2018-01-02 15:20</t>
   </si>
   <si>
     <t>2018-01-02 17:49</t>
   </si>
   <si>
+    <t>2018-01-02 15:42</t>
+  </si>
+  <si>
+    <t>2018-01-02 18:32</t>
+  </si>
+  <si>
+    <t>2018-01-02 17:33</t>
+  </si>
+  <si>
+    <t>2018-01-02 19:55</t>
+  </si>
+  <si>
+    <t>2018-01-02 20:35</t>
+  </si>
+  <si>
+    <t>2018-01-02 18:33</t>
+  </si>
+  <si>
+    <t>2018-01-02 20:44</t>
+  </si>
+  <si>
     <t>2018-01-02 19:26</t>
   </si>
   <si>
     <t>2018-01-02 21:17</t>
   </si>
   <si>
-    <t>2018-01-02 08:45</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:33</t>
-  </si>
-  <si>
-    <t>2018-01-02 09:47</t>
-  </si>
-  <si>
-    <t>2018-01-02 12:09</t>
-  </si>
-  <si>
-    <t>2018-01-02 12:28</t>
-  </si>
-  <si>
-    <t>2018-01-02 14:47</t>
-  </si>
-  <si>
-    <t>2018-01-02 13:46</t>
-  </si>
-  <si>
-    <t>2018-01-02 16:10</t>
-  </si>
-  <si>
-    <t>2018-01-02 15:42</t>
-  </si>
-  <si>
-    <t>2018-01-02 18:32</t>
-  </si>
-  <si>
-    <t>2018-01-02 18:33</t>
-  </si>
-  <si>
-    <t>2018-01-02 20:44</t>
-  </si>
-  <si>
-    <t>2018-01-02 08:58</t>
-  </si>
-  <si>
-    <t>2018-01-02 13:20</t>
-  </si>
-  <si>
-    <t>2018-01-02 11:18</t>
-  </si>
-  <si>
-    <t>2018-01-02 13:37</t>
-  </si>
-  <si>
-    <t>2018-01-02 06:08</t>
-  </si>
-  <si>
-    <t>2018-01-02 08:19</t>
-  </si>
-  <si>
-    <t>2018-01-02 11:34</t>
-  </si>
-  <si>
-    <t>2018-01-02 13:48</t>
-  </si>
-  <si>
-    <t>2018-01-02 07:39</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:47</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:38</t>
-  </si>
-  <si>
-    <t>2018-01-02 13:19</t>
-  </si>
-  <si>
-    <t>2018-01-02 20:35</t>
-  </si>
-  <si>
-    <t>2018-01-02 17:33</t>
-  </si>
-  <si>
-    <t>2018-01-02 19:55</t>
-  </si>
-  <si>
-    <t>2018-01-02 12:06</t>
-  </si>
-  <si>
-    <t>2018-01-02 14:56</t>
-  </si>
-  <si>
-    <t>2018-01-02 11:33</t>
-  </si>
-  <si>
-    <t>2018-01-02 14:48</t>
-  </si>
-  <si>
-    <t>2018-01-02 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:28</t>
-  </si>
-  <si>
-    <t>2018-01-02 11:21</t>
-  </si>
-  <si>
-    <t>2018-01-02 16:17</t>
-  </si>
-  <si>
-    <t>2018-01-02 13:29</t>
-  </si>
-  <si>
-    <t>2018-01-02 15:51</t>
-  </si>
-  <si>
-    <t>2018-01-02 09:53</t>
-  </si>
-  <si>
-    <t>2018-01-02 14:41</t>
-  </si>
-  <si>
-    <t>2018-01-02 14:33</t>
-  </si>
-  <si>
-    <t>2018-01-02 17:16</t>
+    <t>2018-01-03 06:08</t>
+  </si>
+  <si>
+    <t>2018-01-03 08:19</t>
+  </si>
+  <si>
+    <t>2018-01-03 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:28</t>
+  </si>
+  <si>
+    <t>2018-01-03 07:39</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:47</t>
   </si>
   <si>
     <t>2018-01-03 08:22</t>
@@ -1266,145 +1284,145 @@
     <t>2018-01-03 11:53</t>
   </si>
   <si>
+    <t>2018-01-03 08:45</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:33</t>
+  </si>
+  <si>
+    <t>2018-01-03 08:58</t>
+  </si>
+  <si>
+    <t>2018-01-03 13:20</t>
+  </si>
+  <si>
     <t>2018-01-03 09:22</t>
   </si>
   <si>
     <t>2018-01-03 14:18</t>
   </si>
   <si>
+    <t>2018-01-03 09:47</t>
+  </si>
+  <si>
+    <t>2018-01-03 12:09</t>
+  </si>
+  <si>
+    <t>2018-01-03 09:53</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:41</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:38</t>
+  </si>
+  <si>
+    <t>2018-01-03 13:19</t>
+  </si>
+  <si>
+    <t>2018-01-03 11:18</t>
+  </si>
+  <si>
+    <t>2018-01-03 13:37</t>
+  </si>
+  <si>
+    <t>2018-01-03 11:21</t>
+  </si>
+  <si>
+    <t>2018-01-03 16:17</t>
+  </si>
+  <si>
+    <t>2018-01-03 11:33</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:48</t>
+  </si>
+  <si>
+    <t>2018-01-03 11:34</t>
+  </si>
+  <si>
+    <t>2018-01-03 13:48</t>
+  </si>
+  <si>
+    <t>2018-01-03 12:06</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:56</t>
+  </si>
+  <si>
+    <t>2018-01-03 12:28</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:47</t>
+  </si>
+  <si>
+    <t>2018-01-03 13:29</t>
+  </si>
+  <si>
+    <t>2018-01-03 15:51</t>
+  </si>
+  <si>
+    <t>2018-01-03 13:46</t>
+  </si>
+  <si>
+    <t>2018-01-03 16:10</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:33</t>
+  </si>
+  <si>
+    <t>2018-01-03 17:16</t>
+  </si>
+  <si>
     <t>2018-01-03 15:20</t>
   </si>
   <si>
     <t>2018-01-03 17:49</t>
   </si>
   <si>
+    <t>2018-01-03 15:42</t>
+  </si>
+  <si>
+    <t>2018-01-03 18:32</t>
+  </si>
+  <si>
+    <t>2018-01-03 17:33</t>
+  </si>
+  <si>
+    <t>2018-01-03 19:55</t>
+  </si>
+  <si>
+    <t>2018-01-03 20:35</t>
+  </si>
+  <si>
+    <t>2018-01-03 18:33</t>
+  </si>
+  <si>
+    <t>2018-01-03 20:44</t>
+  </si>
+  <si>
     <t>2018-01-03 19:26</t>
   </si>
   <si>
     <t>2018-01-03 21:17</t>
   </si>
   <si>
-    <t>2018-01-03 08:45</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 09:47</t>
-  </si>
-  <si>
-    <t>2018-01-03 12:09</t>
-  </si>
-  <si>
-    <t>2018-01-03 12:28</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:47</t>
-  </si>
-  <si>
-    <t>2018-01-03 13:46</t>
-  </si>
-  <si>
-    <t>2018-01-03 16:10</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:42</t>
-  </si>
-  <si>
-    <t>2018-01-03 18:32</t>
-  </si>
-  <si>
-    <t>2018-01-03 18:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 20:44</t>
-  </si>
-  <si>
-    <t>2018-01-03 08:58</t>
-  </si>
-  <si>
-    <t>2018-01-03 13:20</t>
-  </si>
-  <si>
-    <t>2018-01-03 11:18</t>
-  </si>
-  <si>
-    <t>2018-01-03 13:37</t>
-  </si>
-  <si>
-    <t>2018-01-03 06:08</t>
-  </si>
-  <si>
-    <t>2018-01-03 08:19</t>
-  </si>
-  <si>
-    <t>2018-01-03 11:34</t>
-  </si>
-  <si>
-    <t>2018-01-03 13:48</t>
-  </si>
-  <si>
-    <t>2018-01-03 07:39</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:47</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:38</t>
-  </si>
-  <si>
-    <t>2018-01-03 13:19</t>
-  </si>
-  <si>
-    <t>2018-01-03 20:35</t>
-  </si>
-  <si>
-    <t>2018-01-03 17:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 19:55</t>
-  </si>
-  <si>
-    <t>2018-01-03 12:06</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:56</t>
-  </si>
-  <si>
-    <t>2018-01-03 11:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:48</t>
-  </si>
-  <si>
-    <t>2018-01-03 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:28</t>
-  </si>
-  <si>
-    <t>2018-01-03 11:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 16:17</t>
-  </si>
-  <si>
-    <t>2018-01-03 13:29</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51</t>
-  </si>
-  <si>
-    <t>2018-01-03 09:53</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 17:16</t>
+    <t>2018-01-04 06:08</t>
+  </si>
+  <si>
+    <t>2018-01-04 08:19</t>
+  </si>
+  <si>
+    <t>2018-01-04 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:28</t>
+  </si>
+  <si>
+    <t>2018-01-04 07:39</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:47</t>
   </si>
   <si>
     <t>2018-01-04 08:22</t>
@@ -1413,145 +1431,145 @@
     <t>2018-01-04 11:53</t>
   </si>
   <si>
+    <t>2018-01-04 08:45</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:33</t>
+  </si>
+  <si>
+    <t>2018-01-04 08:58</t>
+  </si>
+  <si>
+    <t>2018-01-04 13:20</t>
+  </si>
+  <si>
     <t>2018-01-04 09:22</t>
   </si>
   <si>
     <t>2018-01-04 14:18</t>
   </si>
   <si>
+    <t>2018-01-04 09:47</t>
+  </si>
+  <si>
+    <t>2018-01-04 12:09</t>
+  </si>
+  <si>
+    <t>2018-01-04 09:53</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:41</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:38</t>
+  </si>
+  <si>
+    <t>2018-01-04 13:19</t>
+  </si>
+  <si>
+    <t>2018-01-04 11:18</t>
+  </si>
+  <si>
+    <t>2018-01-04 13:37</t>
+  </si>
+  <si>
+    <t>2018-01-04 11:21</t>
+  </si>
+  <si>
+    <t>2018-01-04 16:17</t>
+  </si>
+  <si>
+    <t>2018-01-04 11:33</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:48</t>
+  </si>
+  <si>
+    <t>2018-01-04 11:34</t>
+  </si>
+  <si>
+    <t>2018-01-04 13:48</t>
+  </si>
+  <si>
+    <t>2018-01-04 12:06</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:56</t>
+  </si>
+  <si>
+    <t>2018-01-04 12:28</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:47</t>
+  </si>
+  <si>
+    <t>2018-01-04 13:29</t>
+  </si>
+  <si>
+    <t>2018-01-04 15:51</t>
+  </si>
+  <si>
+    <t>2018-01-04 13:46</t>
+  </si>
+  <si>
+    <t>2018-01-04 16:10</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:33</t>
+  </si>
+  <si>
+    <t>2018-01-04 17:16</t>
+  </si>
+  <si>
     <t>2018-01-04 15:20</t>
   </si>
   <si>
     <t>2018-01-04 17:49</t>
   </si>
   <si>
+    <t>2018-01-04 15:42</t>
+  </si>
+  <si>
+    <t>2018-01-04 18:32</t>
+  </si>
+  <si>
+    <t>2018-01-04 17:33</t>
+  </si>
+  <si>
+    <t>2018-01-04 19:55</t>
+  </si>
+  <si>
+    <t>2018-01-04 20:35</t>
+  </si>
+  <si>
+    <t>2018-01-04 18:33</t>
+  </si>
+  <si>
+    <t>2018-01-04 20:44</t>
+  </si>
+  <si>
     <t>2018-01-04 19:26</t>
   </si>
   <si>
     <t>2018-01-04 21:17</t>
   </si>
   <si>
-    <t>2018-01-04 08:45</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:33</t>
-  </si>
-  <si>
-    <t>2018-01-04 09:47</t>
-  </si>
-  <si>
-    <t>2018-01-04 12:09</t>
-  </si>
-  <si>
-    <t>2018-01-04 12:28</t>
-  </si>
-  <si>
-    <t>2018-01-04 14:47</t>
-  </si>
-  <si>
-    <t>2018-01-04 13:46</t>
-  </si>
-  <si>
-    <t>2018-01-04 16:10</t>
-  </si>
-  <si>
-    <t>2018-01-04 15:42</t>
-  </si>
-  <si>
-    <t>2018-01-04 18:32</t>
-  </si>
-  <si>
-    <t>2018-01-04 18:33</t>
-  </si>
-  <si>
-    <t>2018-01-04 20:44</t>
-  </si>
-  <si>
-    <t>2018-01-04 08:58</t>
-  </si>
-  <si>
-    <t>2018-01-04 13:20</t>
-  </si>
-  <si>
-    <t>2018-01-04 11:18</t>
-  </si>
-  <si>
-    <t>2018-01-04 13:37</t>
-  </si>
-  <si>
-    <t>2018-01-04 06:08</t>
-  </si>
-  <si>
-    <t>2018-01-04 08:19</t>
-  </si>
-  <si>
-    <t>2018-01-04 11:34</t>
-  </si>
-  <si>
-    <t>2018-01-04 13:48</t>
-  </si>
-  <si>
-    <t>2018-01-04 07:39</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:47</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:38</t>
-  </si>
-  <si>
-    <t>2018-01-04 13:19</t>
-  </si>
-  <si>
-    <t>2018-01-04 20:35</t>
-  </si>
-  <si>
-    <t>2018-01-04 17:33</t>
-  </si>
-  <si>
-    <t>2018-01-04 19:55</t>
-  </si>
-  <si>
-    <t>2018-01-04 12:06</t>
-  </si>
-  <si>
-    <t>2018-01-04 14:56</t>
-  </si>
-  <si>
-    <t>2018-01-04 11:33</t>
-  </si>
-  <si>
-    <t>2018-01-04 14:48</t>
-  </si>
-  <si>
-    <t>2018-01-04 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:28</t>
-  </si>
-  <si>
-    <t>2018-01-04 11:21</t>
-  </si>
-  <si>
-    <t>2018-01-04 16:17</t>
-  </si>
-  <si>
-    <t>2018-01-04 13:29</t>
-  </si>
-  <si>
-    <t>2018-01-04 15:51</t>
-  </si>
-  <si>
-    <t>2018-01-04 09:53</t>
-  </si>
-  <si>
-    <t>2018-01-04 14:41</t>
-  </si>
-  <si>
-    <t>2018-01-04 14:33</t>
-  </si>
-  <si>
-    <t>2018-01-04 17:16</t>
+    <t>2018-01-05 06:08</t>
+  </si>
+  <si>
+    <t>2018-01-05 08:19</t>
+  </si>
+  <si>
+    <t>2018-01-05 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:28</t>
+  </si>
+  <si>
+    <t>2018-01-05 07:39</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:47</t>
   </si>
   <si>
     <t>2018-01-05 08:22</t>
@@ -1560,145 +1578,145 @@
     <t>2018-01-05 11:53</t>
   </si>
   <si>
+    <t>2018-01-05 08:45</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:33</t>
+  </si>
+  <si>
+    <t>2018-01-05 08:58</t>
+  </si>
+  <si>
+    <t>2018-01-05 13:20</t>
+  </si>
+  <si>
     <t>2018-01-05 09:22</t>
   </si>
   <si>
     <t>2018-01-05 14:18</t>
   </si>
   <si>
+    <t>2018-01-05 09:47</t>
+  </si>
+  <si>
+    <t>2018-01-05 12:09</t>
+  </si>
+  <si>
+    <t>2018-01-05 09:53</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:41</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:38</t>
+  </si>
+  <si>
+    <t>2018-01-05 13:19</t>
+  </si>
+  <si>
+    <t>2018-01-05 11:18</t>
+  </si>
+  <si>
+    <t>2018-01-05 13:37</t>
+  </si>
+  <si>
+    <t>2018-01-05 11:21</t>
+  </si>
+  <si>
+    <t>2018-01-05 16:17</t>
+  </si>
+  <si>
+    <t>2018-01-05 11:33</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:48</t>
+  </si>
+  <si>
+    <t>2018-01-05 11:34</t>
+  </si>
+  <si>
+    <t>2018-01-05 13:48</t>
+  </si>
+  <si>
+    <t>2018-01-05 12:06</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:56</t>
+  </si>
+  <si>
+    <t>2018-01-05 12:28</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:47</t>
+  </si>
+  <si>
+    <t>2018-01-05 13:29</t>
+  </si>
+  <si>
+    <t>2018-01-05 15:51</t>
+  </si>
+  <si>
+    <t>2018-01-05 13:46</t>
+  </si>
+  <si>
+    <t>2018-01-05 16:10</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:33</t>
+  </si>
+  <si>
+    <t>2018-01-05 17:16</t>
+  </si>
+  <si>
     <t>2018-01-05 15:20</t>
   </si>
   <si>
     <t>2018-01-05 17:49</t>
   </si>
   <si>
+    <t>2018-01-05 15:42</t>
+  </si>
+  <si>
+    <t>2018-01-05 18:32</t>
+  </si>
+  <si>
+    <t>2018-01-05 17:33</t>
+  </si>
+  <si>
+    <t>2018-01-05 19:55</t>
+  </si>
+  <si>
+    <t>2018-01-05 20:35</t>
+  </si>
+  <si>
+    <t>2018-01-05 18:33</t>
+  </si>
+  <si>
+    <t>2018-01-05 20:44</t>
+  </si>
+  <si>
     <t>2018-01-05 19:26</t>
   </si>
   <si>
     <t>2018-01-05 21:17</t>
   </si>
   <si>
-    <t>2018-01-05 08:45</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:33</t>
-  </si>
-  <si>
-    <t>2018-01-05 09:47</t>
-  </si>
-  <si>
-    <t>2018-01-05 12:09</t>
-  </si>
-  <si>
-    <t>2018-01-05 12:28</t>
-  </si>
-  <si>
-    <t>2018-01-05 14:47</t>
-  </si>
-  <si>
-    <t>2018-01-05 13:46</t>
-  </si>
-  <si>
-    <t>2018-01-05 16:10</t>
-  </si>
-  <si>
-    <t>2018-01-05 15:42</t>
-  </si>
-  <si>
-    <t>2018-01-05 18:32</t>
-  </si>
-  <si>
-    <t>2018-01-05 18:33</t>
-  </si>
-  <si>
-    <t>2018-01-05 20:44</t>
-  </si>
-  <si>
-    <t>2018-01-05 08:58</t>
-  </si>
-  <si>
-    <t>2018-01-05 13:20</t>
-  </si>
-  <si>
-    <t>2018-01-05 11:18</t>
-  </si>
-  <si>
-    <t>2018-01-05 13:37</t>
-  </si>
-  <si>
-    <t>2018-01-05 06:08</t>
-  </si>
-  <si>
-    <t>2018-01-05 08:19</t>
-  </si>
-  <si>
-    <t>2018-01-05 11:34</t>
-  </si>
-  <si>
-    <t>2018-01-05 13:48</t>
-  </si>
-  <si>
-    <t>2018-01-05 07:39</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:47</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:38</t>
-  </si>
-  <si>
-    <t>2018-01-05 13:19</t>
-  </si>
-  <si>
-    <t>2018-01-05 20:35</t>
-  </si>
-  <si>
-    <t>2018-01-05 17:33</t>
-  </si>
-  <si>
-    <t>2018-01-05 19:55</t>
-  </si>
-  <si>
-    <t>2018-01-05 12:06</t>
-  </si>
-  <si>
-    <t>2018-01-05 14:56</t>
-  </si>
-  <si>
-    <t>2018-01-05 11:33</t>
-  </si>
-  <si>
-    <t>2018-01-05 14:48</t>
-  </si>
-  <si>
-    <t>2018-01-05 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:28</t>
-  </si>
-  <si>
-    <t>2018-01-05 11:21</t>
-  </si>
-  <si>
-    <t>2018-01-05 16:17</t>
-  </si>
-  <si>
-    <t>2018-01-05 13:29</t>
-  </si>
-  <si>
-    <t>2018-01-05 15:51</t>
-  </si>
-  <si>
-    <t>2018-01-05 09:53</t>
-  </si>
-  <si>
-    <t>2018-01-05 14:41</t>
-  </si>
-  <si>
-    <t>2018-01-05 14:33</t>
-  </si>
-  <si>
-    <t>2018-01-05 17:16</t>
+    <t>2018-01-06 06:08</t>
+  </si>
+  <si>
+    <t>2018-01-06 08:19</t>
+  </si>
+  <si>
+    <t>2018-01-06 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:28</t>
+  </si>
+  <si>
+    <t>2018-01-06 07:39</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:47</t>
   </si>
   <si>
     <t>2018-01-06 08:22</t>
@@ -1707,145 +1725,145 @@
     <t>2018-01-06 11:53</t>
   </si>
   <si>
+    <t>2018-01-06 08:45</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:33</t>
+  </si>
+  <si>
+    <t>2018-01-06 08:58</t>
+  </si>
+  <si>
+    <t>2018-01-06 13:20</t>
+  </si>
+  <si>
     <t>2018-01-06 09:22</t>
   </si>
   <si>
     <t>2018-01-06 14:18</t>
   </si>
   <si>
+    <t>2018-01-06 09:47</t>
+  </si>
+  <si>
+    <t>2018-01-06 12:09</t>
+  </si>
+  <si>
+    <t>2018-01-06 09:53</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:41</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:38</t>
+  </si>
+  <si>
+    <t>2018-01-06 13:19</t>
+  </si>
+  <si>
+    <t>2018-01-06 11:18</t>
+  </si>
+  <si>
+    <t>2018-01-06 13:37</t>
+  </si>
+  <si>
+    <t>2018-01-06 11:21</t>
+  </si>
+  <si>
+    <t>2018-01-06 16:17</t>
+  </si>
+  <si>
+    <t>2018-01-06 11:33</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:48</t>
+  </si>
+  <si>
+    <t>2018-01-06 11:34</t>
+  </si>
+  <si>
+    <t>2018-01-06 13:48</t>
+  </si>
+  <si>
+    <t>2018-01-06 12:06</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:56</t>
+  </si>
+  <si>
+    <t>2018-01-06 12:28</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:47</t>
+  </si>
+  <si>
+    <t>2018-01-06 13:29</t>
+  </si>
+  <si>
+    <t>2018-01-06 15:51</t>
+  </si>
+  <si>
+    <t>2018-01-06 13:46</t>
+  </si>
+  <si>
+    <t>2018-01-06 16:10</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:33</t>
+  </si>
+  <si>
+    <t>2018-01-06 17:16</t>
+  </si>
+  <si>
     <t>2018-01-06 15:20</t>
   </si>
   <si>
     <t>2018-01-06 17:49</t>
   </si>
   <si>
+    <t>2018-01-06 15:42</t>
+  </si>
+  <si>
+    <t>2018-01-06 18:32</t>
+  </si>
+  <si>
+    <t>2018-01-06 17:33</t>
+  </si>
+  <si>
+    <t>2018-01-06 19:55</t>
+  </si>
+  <si>
+    <t>2018-01-06 20:35</t>
+  </si>
+  <si>
+    <t>2018-01-06 18:33</t>
+  </si>
+  <si>
+    <t>2018-01-06 20:44</t>
+  </si>
+  <si>
     <t>2018-01-06 19:26</t>
   </si>
   <si>
     <t>2018-01-06 21:17</t>
   </si>
   <si>
-    <t>2018-01-06 08:45</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:33</t>
-  </si>
-  <si>
-    <t>2018-01-06 09:47</t>
-  </si>
-  <si>
-    <t>2018-01-06 12:09</t>
-  </si>
-  <si>
-    <t>2018-01-06 12:28</t>
-  </si>
-  <si>
-    <t>2018-01-06 14:47</t>
-  </si>
-  <si>
-    <t>2018-01-06 13:46</t>
-  </si>
-  <si>
-    <t>2018-01-06 16:10</t>
-  </si>
-  <si>
-    <t>2018-01-06 15:42</t>
-  </si>
-  <si>
-    <t>2018-01-06 18:32</t>
-  </si>
-  <si>
-    <t>2018-01-06 18:33</t>
-  </si>
-  <si>
-    <t>2018-01-06 20:44</t>
-  </si>
-  <si>
-    <t>2018-01-06 08:58</t>
-  </si>
-  <si>
-    <t>2018-01-06 13:20</t>
-  </si>
-  <si>
-    <t>2018-01-06 11:18</t>
-  </si>
-  <si>
-    <t>2018-01-06 13:37</t>
-  </si>
-  <si>
-    <t>2018-01-06 06:08</t>
-  </si>
-  <si>
-    <t>2018-01-06 08:19</t>
-  </si>
-  <si>
-    <t>2018-01-06 11:34</t>
-  </si>
-  <si>
-    <t>2018-01-06 13:48</t>
-  </si>
-  <si>
-    <t>2018-01-06 07:39</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:47</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:38</t>
-  </si>
-  <si>
-    <t>2018-01-06 13:19</t>
-  </si>
-  <si>
-    <t>2018-01-06 20:35</t>
-  </si>
-  <si>
-    <t>2018-01-06 17:33</t>
-  </si>
-  <si>
-    <t>2018-01-06 19:55</t>
-  </si>
-  <si>
-    <t>2018-01-06 12:06</t>
-  </si>
-  <si>
-    <t>2018-01-06 14:56</t>
-  </si>
-  <si>
-    <t>2018-01-06 11:33</t>
-  </si>
-  <si>
-    <t>2018-01-06 14:48</t>
-  </si>
-  <si>
-    <t>2018-01-06 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:28</t>
-  </si>
-  <si>
-    <t>2018-01-06 11:21</t>
-  </si>
-  <si>
-    <t>2018-01-06 16:17</t>
-  </si>
-  <si>
-    <t>2018-01-06 13:29</t>
-  </si>
-  <si>
-    <t>2018-01-06 15:51</t>
-  </si>
-  <si>
-    <t>2018-01-06 09:53</t>
-  </si>
-  <si>
-    <t>2018-01-06 14:41</t>
-  </si>
-  <si>
-    <t>2018-01-06 14:33</t>
-  </si>
-  <si>
-    <t>2018-01-06 17:16</t>
+    <t>2018-01-07 06:08</t>
+  </si>
+  <si>
+    <t>2018-01-07 08:19</t>
+  </si>
+  <si>
+    <t>2018-01-07 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:28</t>
+  </si>
+  <si>
+    <t>2018-01-07 07:39</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:47</t>
   </si>
   <si>
     <t>2018-01-07 08:22</t>
@@ -1854,147 +1872,129 @@
     <t>2018-01-07 11:53</t>
   </si>
   <si>
+    <t>2018-01-07 08:45</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:33</t>
+  </si>
+  <si>
+    <t>2018-01-07 08:58</t>
+  </si>
+  <si>
+    <t>2018-01-07 13:20</t>
+  </si>
+  <si>
     <t>2018-01-07 09:22</t>
   </si>
   <si>
     <t>2018-01-07 14:18</t>
   </si>
   <si>
+    <t>2018-01-07 09:47</t>
+  </si>
+  <si>
+    <t>2018-01-07 12:09</t>
+  </si>
+  <si>
+    <t>2018-01-07 09:53</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:41</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:38</t>
+  </si>
+  <si>
+    <t>2018-01-07 13:19</t>
+  </si>
+  <si>
+    <t>2018-01-07 11:18</t>
+  </si>
+  <si>
+    <t>2018-01-07 13:37</t>
+  </si>
+  <si>
+    <t>2018-01-07 11:21</t>
+  </si>
+  <si>
+    <t>2018-01-07 16:17</t>
+  </si>
+  <si>
+    <t>2018-01-07 11:33</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:48</t>
+  </si>
+  <si>
+    <t>2018-01-07 11:34</t>
+  </si>
+  <si>
+    <t>2018-01-07 13:48</t>
+  </si>
+  <si>
+    <t>2018-01-07 12:06</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:56</t>
+  </si>
+  <si>
+    <t>2018-01-07 12:28</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:47</t>
+  </si>
+  <si>
+    <t>2018-01-07 13:29</t>
+  </si>
+  <si>
+    <t>2018-01-07 15:51</t>
+  </si>
+  <si>
+    <t>2018-01-07 13:46</t>
+  </si>
+  <si>
+    <t>2018-01-07 16:10</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:33</t>
+  </si>
+  <si>
+    <t>2018-01-07 17:16</t>
+  </si>
+  <si>
     <t>2018-01-07 15:20</t>
   </si>
   <si>
     <t>2018-01-07 17:49</t>
   </si>
   <si>
+    <t>2018-01-07 15:42</t>
+  </si>
+  <si>
+    <t>2018-01-07 18:32</t>
+  </si>
+  <si>
+    <t>2018-01-07 17:33</t>
+  </si>
+  <si>
+    <t>2018-01-07 19:55</t>
+  </si>
+  <si>
+    <t>2018-01-07 20:35</t>
+  </si>
+  <si>
+    <t>2018-01-07 18:33</t>
+  </si>
+  <si>
+    <t>2018-01-07 20:44</t>
+  </si>
+  <si>
     <t>2018-01-07 19:26</t>
   </si>
   <si>
     <t>2018-01-07 21:17</t>
   </si>
   <si>
-    <t>2018-01-07 08:45</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:33</t>
-  </si>
-  <si>
-    <t>2018-01-07 09:47</t>
-  </si>
-  <si>
-    <t>2018-01-07 12:09</t>
-  </si>
-  <si>
-    <t>2018-01-07 12:28</t>
-  </si>
-  <si>
-    <t>2018-01-07 14:47</t>
-  </si>
-  <si>
-    <t>2018-01-07 13:46</t>
-  </si>
-  <si>
-    <t>2018-01-07 16:10</t>
-  </si>
-  <si>
-    <t>2018-01-07 15:42</t>
-  </si>
-  <si>
-    <t>2018-01-07 18:32</t>
-  </si>
-  <si>
-    <t>2018-01-07 18:33</t>
-  </si>
-  <si>
-    <t>2018-01-07 20:44</t>
-  </si>
-  <si>
-    <t>2018-01-07 08:58</t>
-  </si>
-  <si>
-    <t>2018-01-07 13:20</t>
-  </si>
-  <si>
-    <t>2018-01-07 11:18</t>
-  </si>
-  <si>
-    <t>2018-01-07 13:37</t>
-  </si>
-  <si>
-    <t>2018-01-07 06:08</t>
-  </si>
-  <si>
-    <t>2018-01-07 08:19</t>
-  </si>
-  <si>
-    <t>2018-01-07 11:34</t>
-  </si>
-  <si>
-    <t>2018-01-07 13:48</t>
-  </si>
-  <si>
-    <t>2018-01-07 07:39</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:47</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:38</t>
-  </si>
-  <si>
-    <t>2018-01-07 13:19</t>
-  </si>
-  <si>
-    <t>2018-01-07 20:35</t>
-  </si>
-  <si>
-    <t>2018-01-07 17:33</t>
-  </si>
-  <si>
-    <t>2018-01-07 19:55</t>
-  </si>
-  <si>
-    <t>2018-01-07 12:06</t>
-  </si>
-  <si>
-    <t>2018-01-07 14:56</t>
-  </si>
-  <si>
-    <t>2018-01-07 11:33</t>
-  </si>
-  <si>
-    <t>2018-01-07 14:48</t>
-  </si>
-  <si>
-    <t>2018-01-07 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:28</t>
-  </si>
-  <si>
-    <t>2018-01-07 11:21</t>
-  </si>
-  <si>
-    <t>2018-01-07 16:17</t>
-  </si>
-  <si>
-    <t>2018-01-07 13:29</t>
-  </si>
-  <si>
-    <t>2018-01-07 15:51</t>
-  </si>
-  <si>
-    <t>2018-01-07 09:53</t>
-  </si>
-  <si>
-    <t>2018-01-07 14:41</t>
-  </si>
-  <si>
-    <t>2018-01-07 14:33</t>
-  </si>
-  <si>
-    <t>2018-01-07 17:16</t>
-  </si>
-  <si>
     <t>Employee name</t>
   </si>
   <si>
@@ -2052,19 +2052,22 @@
     <t>-875init</t>
   </si>
   <si>
-    <t>Constraint match</t>
+    <t>Constraint name</t>
+  </si>
+  <si>
+    <t>Constraint weight</t>
+  </si>
+  <si>
+    <t>Match count</t>
   </si>
   <si>
     <t>Match score</t>
   </si>
   <si>
-    <t>Total score</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
+    <t>Justifications</t>
+  </si>
+  <si>
+    <t>Unassigned variables</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2089,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2095,6 +2098,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BABDB6"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2121,6 +2129,16 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2134,30 +2152,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2198,7 +2228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="4.0" state="frozen" topLeftCell="B5" activePane="bottomRight"/>
@@ -2207,9 +2237,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="114.34375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.91015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="113.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2304,7 +2334,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -2313,7 +2343,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.7265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2339,7 +2369,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -2348,10 +2378,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.51171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.83984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.4765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3048,7 +3078,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AW50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -3057,55 +3087,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.05078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.4296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.59375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.9921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.66015625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.9140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="6.5546875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.6328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="7.8046875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="5.99609375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="12.21484375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.734375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="7.7578125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="9.59375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="12.75" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="8.51953125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="10.15625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.47265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="7.89453125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="7.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="8.0859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="13.41796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="7.46484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="7.53125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="11.3359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="8.6484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="8.33984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="8.82421875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="7.7890625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="9.33984375" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="7.41796875" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="10.15234375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="14.46875" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="6.6171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="10.6953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="11.26953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="9.71875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="6.54296875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="6.9296875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="13.16796875" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="11.36328125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="10.26953125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="8.72265625" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="10.91796875" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="9.0234375" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="10.125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.83203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.4375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.94140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.5859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.90625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.47265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.65234375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="7.57421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="5.98828125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="12.30859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.546875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="7.65625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="9.5390625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="12.734375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="8.55078125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="10.05859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.44140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.15234375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="7.796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="7.92578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="13.171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="7.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="7.578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="11.359375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="8.69140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="8.265625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="8.73828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="7.82421875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="9.375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="7.2265625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="10.19921875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="14.3046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="6.55859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="10.984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="11.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="9.69140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="6.5234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="9.34765625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="6.80859375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="13.05859375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="10.18359375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="8.6015625" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="10.953125" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="8.828125" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="10.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6315,7 +6345,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6325,7 +6355,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -6334,16 +6364,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.36328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.10546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.1953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.1015625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.26953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.15234375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.21875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.7265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.9921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.09375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.50390625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="15.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6466,7 +6496,7 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -6516,7 +6546,7 @@
       <c r="I6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6795,7 +6825,7 @@
       <c r="F15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>122</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -6990,7 +7020,7 @@
       <c r="G21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -7013,7 +7043,7 @@
       <c r="D22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -7057,7 +7087,7 @@
       <c r="H23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -7173,10 +7203,10 @@
       <c r="D27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -7217,7 +7247,7 @@
       <c r="H28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -7426,7 +7456,7 @@
       <c r="C35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -7688,7 +7718,7 @@
       <c r="E43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -7758,7 +7788,7 @@
       <c r="G45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -7828,7 +7858,7 @@
       <c r="I47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8011,7 +8041,7 @@
       <c r="F53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="5" t="s">
         <v>122</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -8072,7 +8102,7 @@
       <c r="E55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -8116,7 +8146,7 @@
       <c r="I56" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8238,7 +8268,7 @@
       <c r="G60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -8325,7 +8355,7 @@
       <c r="D63" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -8354,7 +8384,7 @@
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -8453,19 +8483,19 @@
       <c r="D67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="5" t="s">
         <v>122</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J67" s="2" t="s">
@@ -8561,7 +8591,7 @@
       <c r="H70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J70" s="2" t="s">
@@ -8872,7 +8902,7 @@
       <c r="E80" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -8980,7 +9010,7 @@
       <c r="I83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9058,7 +9088,7 @@
       <c r="C86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -9102,7 +9132,7 @@
       <c r="G87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -9131,7 +9161,7 @@
       <c r="F88" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="5" t="s">
         <v>122</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -9163,7 +9193,7 @@
       <c r="F89" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="5" t="s">
         <v>122</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -9268,7 +9298,7 @@
       <c r="I92" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9422,7 +9452,7 @@
       <c r="G97" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -9474,7 +9504,7 @@
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -9585,7 +9615,7 @@
       <c r="H102" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="I102" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J102" s="2" t="s">
@@ -9640,7 +9670,7 @@
       <c r="E104" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G104" s="2" t="s">
@@ -9669,7 +9699,7 @@
       <c r="D105" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -9812,7 +9842,7 @@
       <c r="I109" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9832,7 +9862,7 @@
       <c r="E110" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G110" s="2" t="s">
@@ -9989,7 +10019,7 @@
       <c r="D115" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -10062,7 +10092,7 @@
       <c r="G117" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I117" s="2" t="s">
@@ -10091,7 +10121,7 @@
       <c r="F118" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="5" t="s">
         <v>122</v>
       </c>
       <c r="H118" s="2" t="s">
@@ -10338,7 +10368,7 @@
       <c r="C126" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -10385,7 +10415,7 @@
       <c r="H127" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="I127" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J127" s="2" t="s">
@@ -10530,7 +10560,7 @@
       <c r="C132" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -10725,7 +10755,7 @@
       <c r="D138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F138" s="2" t="s">
@@ -10792,7 +10822,7 @@
       <c r="E140" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -10900,7 +10930,7 @@
       <c r="I143" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="J143" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10955,7 +10985,7 @@
       <c r="F145" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" s="5" t="s">
         <v>122</v>
       </c>
       <c r="H145" s="2" t="s">
@@ -11057,7 +11087,7 @@
       <c r="H148" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="I148" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J148" s="2" t="s">
@@ -11200,7 +11230,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -11209,13 +11239,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.84765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.94921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.6796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="56.2890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.65625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.3203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="53.78125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="21.96484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11246,13 +11276,13 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>290</v>
@@ -11269,13 +11299,13 @@
         <v>293</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>294</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>295</v>
@@ -11292,13 +11322,13 @@
         <v>296</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>298</v>
@@ -11321,7 +11351,7 @@
         <v>300</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>301</v>
@@ -11361,13 +11391,13 @@
         <v>305</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>307</v>
@@ -11384,13 +11414,13 @@
         <v>308</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>310</v>
@@ -11413,7 +11443,7 @@
         <v>312</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>313</v>
@@ -11430,13 +11460,13 @@
         <v>314</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>316</v>
@@ -11453,13 +11483,13 @@
         <v>317</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>319</v>
@@ -11476,13 +11506,13 @@
         <v>320</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>322</v>
@@ -11499,13 +11529,13 @@
         <v>323</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>325</v>
@@ -11522,13 +11552,13 @@
         <v>326</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>328</v>
@@ -11568,13 +11598,13 @@
         <v>332</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>333</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>334</v>
@@ -11591,13 +11621,13 @@
         <v>335</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>337</v>
@@ -11614,16 +11644,16 @@
         <v>338</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>291</v>
@@ -11634,19 +11664,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>291</v>
@@ -11657,19 +11687,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>291</v>
@@ -11680,19 +11710,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>291</v>
@@ -11703,19 +11733,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>291</v>
@@ -11726,19 +11756,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>291</v>
@@ -11749,16 +11779,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>357</v>
@@ -11775,13 +11805,13 @@
         <v>358</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>360</v>
@@ -11798,13 +11828,13 @@
         <v>361</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>362</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>363</v>
@@ -11821,13 +11851,13 @@
         <v>288</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>365</v>
@@ -11844,13 +11874,13 @@
         <v>293</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>366</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>367</v>
@@ -11867,13 +11897,13 @@
         <v>296</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>369</v>
@@ -11896,7 +11926,7 @@
         <v>370</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>371</v>
@@ -11936,13 +11966,13 @@
         <v>305</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>374</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>375</v>
@@ -11959,13 +11989,13 @@
         <v>308</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>377</v>
@@ -11988,7 +12018,7 @@
         <v>378</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>379</v>
@@ -12005,13 +12035,13 @@
         <v>314</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>380</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>381</v>
@@ -12028,13 +12058,13 @@
         <v>317</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>383</v>
@@ -12051,13 +12081,13 @@
         <v>320</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>385</v>
@@ -12074,13 +12104,13 @@
         <v>323</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>386</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>387</v>
@@ -12097,13 +12127,13 @@
         <v>326</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>388</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>389</v>
@@ -12143,13 +12173,13 @@
         <v>332</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>393</v>
@@ -12166,13 +12196,13 @@
         <v>335</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>394</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>395</v>
@@ -12189,16 +12219,16 @@
         <v>338</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>291</v>
@@ -12209,19 +12239,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>291</v>
@@ -12232,19 +12262,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>291</v>
@@ -12255,19 +12285,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>291</v>
@@ -12278,19 +12308,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>291</v>
@@ -12301,19 +12331,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>291</v>
@@ -12324,16 +12354,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>408</v>
@@ -12350,13 +12380,13 @@
         <v>358</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>410</v>
@@ -12373,13 +12403,13 @@
         <v>361</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>411</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>412</v>
@@ -12396,13 +12426,13 @@
         <v>288</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>413</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>414</v>
@@ -12419,13 +12449,13 @@
         <v>293</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>416</v>
@@ -12442,13 +12472,13 @@
         <v>296</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>418</v>
@@ -12471,7 +12501,7 @@
         <v>419</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>420</v>
@@ -12511,13 +12541,13 @@
         <v>305</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>423</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>424</v>
@@ -12534,13 +12564,13 @@
         <v>308</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>425</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>426</v>
@@ -12563,7 +12593,7 @@
         <v>427</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>428</v>
@@ -12580,13 +12610,13 @@
         <v>314</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>430</v>
@@ -12603,13 +12633,13 @@
         <v>317</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>431</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>432</v>
@@ -12626,13 +12656,13 @@
         <v>320</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>434</v>
@@ -12649,13 +12679,13 @@
         <v>323</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>436</v>
@@ -12672,13 +12702,13 @@
         <v>326</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>438</v>
@@ -12718,13 +12748,13 @@
         <v>332</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>442</v>
@@ -12741,13 +12771,13 @@
         <v>335</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>443</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>444</v>
@@ -12764,16 +12794,16 @@
         <v>338</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>291</v>
@@ -12784,19 +12814,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>291</v>
@@ -12807,19 +12837,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>291</v>
@@ -12830,19 +12860,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>291</v>
@@ -12853,19 +12883,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>291</v>
@@ -12876,19 +12906,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>291</v>
@@ -12899,16 +12929,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>457</v>
@@ -12925,13 +12955,13 @@
         <v>358</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>458</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>459</v>
@@ -12948,13 +12978,13 @@
         <v>361</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>460</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>461</v>
@@ -12971,13 +13001,13 @@
         <v>288</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>462</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>463</v>
@@ -12994,13 +13024,13 @@
         <v>293</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>465</v>
@@ -13017,13 +13047,13 @@
         <v>296</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>466</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>467</v>
@@ -13046,7 +13076,7 @@
         <v>468</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>469</v>
@@ -13086,13 +13116,13 @@
         <v>305</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>472</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>473</v>
@@ -13109,13 +13139,13 @@
         <v>308</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>474</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>475</v>
@@ -13138,7 +13168,7 @@
         <v>476</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>477</v>
@@ -13155,13 +13185,13 @@
         <v>314</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>478</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>479</v>
@@ -13178,13 +13208,13 @@
         <v>317</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>480</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>481</v>
@@ -13201,13 +13231,13 @@
         <v>320</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>482</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>483</v>
@@ -13224,13 +13254,13 @@
         <v>323</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>484</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>485</v>
@@ -13247,13 +13277,13 @@
         <v>326</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>486</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>487</v>
@@ -13293,13 +13323,13 @@
         <v>332</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>490</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>491</v>
@@ -13316,13 +13346,13 @@
         <v>335</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>492</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>493</v>
@@ -13339,16 +13369,16 @@
         <v>338</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>291</v>
@@ -13359,19 +13389,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>291</v>
@@ -13382,19 +13412,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>291</v>
@@ -13405,19 +13435,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>291</v>
@@ -13428,19 +13458,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>291</v>
@@ -13451,19 +13481,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>291</v>
@@ -13474,16 +13504,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>506</v>
@@ -13500,13 +13530,13 @@
         <v>358</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>508</v>
@@ -13523,13 +13553,13 @@
         <v>361</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>510</v>
@@ -13546,13 +13576,13 @@
         <v>288</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>512</v>
@@ -13569,13 +13599,13 @@
         <v>293</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>513</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>514</v>
@@ -13592,13 +13622,13 @@
         <v>296</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>515</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>516</v>
@@ -13621,7 +13651,7 @@
         <v>517</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>518</v>
@@ -13661,13 +13691,13 @@
         <v>305</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>521</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>522</v>
@@ -13684,13 +13714,13 @@
         <v>308</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>524</v>
@@ -13713,7 +13743,7 @@
         <v>525</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>526</v>
@@ -13730,13 +13760,13 @@
         <v>314</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>528</v>
@@ -13753,13 +13783,13 @@
         <v>317</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>529</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>530</v>
@@ -13776,13 +13806,13 @@
         <v>320</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>531</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>532</v>
@@ -13799,13 +13829,13 @@
         <v>323</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>533</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>534</v>
@@ -13822,13 +13852,13 @@
         <v>326</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>535</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>536</v>
@@ -13868,13 +13898,13 @@
         <v>332</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>539</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>540</v>
@@ -13891,13 +13921,13 @@
         <v>335</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>541</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>542</v>
@@ -13914,16 +13944,16 @@
         <v>338</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>291</v>
@@ -13934,19 +13964,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>291</v>
@@ -13957,19 +13987,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>291</v>
@@ -13980,19 +14010,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>291</v>
@@ -14003,19 +14033,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>291</v>
@@ -14026,19 +14056,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>291</v>
@@ -14049,16 +14079,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>555</v>
@@ -14075,13 +14105,13 @@
         <v>358</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>556</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>557</v>
@@ -14098,13 +14128,13 @@
         <v>361</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>558</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>559</v>
@@ -14121,13 +14151,13 @@
         <v>288</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>560</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>561</v>
@@ -14144,13 +14174,13 @@
         <v>293</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>562</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>563</v>
@@ -14167,13 +14197,13 @@
         <v>296</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>564</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>565</v>
@@ -14196,7 +14226,7 @@
         <v>566</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>567</v>
@@ -14236,13 +14266,13 @@
         <v>305</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>570</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>571</v>
@@ -14259,13 +14289,13 @@
         <v>308</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>572</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>573</v>
@@ -14288,7 +14318,7 @@
         <v>574</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>575</v>
@@ -14305,13 +14335,13 @@
         <v>314</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>576</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>577</v>
@@ -14328,13 +14358,13 @@
         <v>317</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>578</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>579</v>
@@ -14351,13 +14381,13 @@
         <v>320</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>580</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>581</v>
@@ -14374,13 +14404,13 @@
         <v>323</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>582</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>583</v>
@@ -14397,13 +14427,13 @@
         <v>326</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>585</v>
@@ -14443,13 +14473,13 @@
         <v>332</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>588</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>589</v>
@@ -14466,13 +14496,13 @@
         <v>335</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>590</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>591</v>
@@ -14489,16 +14519,16 @@
         <v>338</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>291</v>
@@ -14509,19 +14539,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>291</v>
@@ -14532,19 +14562,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>291</v>
@@ -14555,19 +14585,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>291</v>
@@ -14578,19 +14608,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>291</v>
@@ -14601,19 +14631,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>291</v>
@@ -14624,16 +14654,16 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>604</v>
@@ -14650,13 +14680,13 @@
         <v>358</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>605</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>606</v>
@@ -14673,13 +14703,13 @@
         <v>361</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>607</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>608</v>
@@ -14696,13 +14726,13 @@
         <v>288</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>610</v>
@@ -14719,13 +14749,13 @@
         <v>293</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>612</v>
@@ -14742,13 +14772,13 @@
         <v>296</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>613</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>614</v>
@@ -14771,7 +14801,7 @@
         <v>615</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>616</v>
@@ -14811,13 +14841,13 @@
         <v>305</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>619</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>620</v>
@@ -14834,13 +14864,13 @@
         <v>308</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>621</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>622</v>
@@ -14863,7 +14893,7 @@
         <v>623</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>624</v>
@@ -14880,13 +14910,13 @@
         <v>314</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>625</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>626</v>
@@ -14903,13 +14933,13 @@
         <v>317</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>627</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>628</v>
@@ -14926,13 +14956,13 @@
         <v>320</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>629</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>630</v>
@@ -14949,13 +14979,13 @@
         <v>323</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>631</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>632</v>
@@ -14972,13 +15002,13 @@
         <v>326</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>633</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>634</v>
@@ -15018,13 +15048,13 @@
         <v>332</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>637</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>638</v>
@@ -15041,13 +15071,13 @@
         <v>335</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>639</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>640</v>
@@ -15064,16 +15094,16 @@
         <v>338</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>291</v>
@@ -15084,19 +15114,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>291</v>
@@ -15107,19 +15137,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>291</v>
@@ -15130,19 +15160,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>291</v>
@@ -15153,19 +15183,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>291</v>
@@ -15176,19 +15206,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>291</v>
@@ -15199,16 +15229,16 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>653</v>
@@ -15225,13 +15255,13 @@
         <v>358</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>654</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>655</v>
@@ -15248,13 +15278,13 @@
         <v>361</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>656</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>657</v>
@@ -15277,7 +15307,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:DJ152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="2.0" state="frozen" topLeftCell="C3" activePane="bottomRight"/>
@@ -15286,8 +15316,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.859375" customWidth="true"/>
     <col min="4" max="4" width="5.859375" customWidth="true"/>
     <col min="5" max="5" width="5.859375" customWidth="true"/>
@@ -17285,7 +17315,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="7">
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="S1:AH1"/>
     <mergeCell ref="AI1:AX1"/>
@@ -17304,7 +17334,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -17313,9 +17343,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.2734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.08984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="1.015625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.08984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17337,26 +17371,31 @@
       <c r="C3" s="1" t="s">
         <v>679</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>682</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="n">
+        <v>-875.0</v>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
